--- a/AutomationArc/QasArcTest.xlsx
+++ b/AutomationArc/QasArcTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KatalonProject\Automation\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArcKatalon\AutomationArc\AutomationArc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE1E3265-D786-4458-9F4C-D5C6D8AE2C69}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E671FCE-B1E3-4C9F-A548-FF4DDDD862EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="0" windowWidth="20280" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USBuildingProject" sheetId="1" r:id="rId1"/>
@@ -2030,9 +2030,6 @@
     <t>0.73</t>
   </si>
   <si>
-    <t>1000075471</t>
-  </si>
-  <si>
     <t>1000151269</t>
   </si>
   <si>
@@ -2526,6 +2523,9 @@
   </si>
   <si>
     <t>1000078127</t>
+  </si>
+  <si>
+    <t>1000071443</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,7 +3413,7 @@
         <v>108</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>109</v>
@@ -3446,7 +3446,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>26</v>
@@ -3506,7 +3506,7 @@
         <v>500</v>
       </c>
       <c r="AI1" s="110" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AJ1" s="110" t="s">
         <v>501</v>
@@ -3515,59 +3515,59 @@
         <v>502</v>
       </c>
       <c r="AL1" s="110" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AM1" s="154" t="s">
         <v>503</v>
       </c>
       <c r="AN1" s="156" t="s">
+        <v>735</v>
+      </c>
+      <c r="AO1" s="157" t="s">
         <v>736</v>
       </c>
-      <c r="AO1" s="157" t="s">
+      <c r="AP1" s="157" t="s">
         <v>737</v>
       </c>
-      <c r="AP1" s="157" t="s">
+      <c r="AQ1" s="157" t="s">
         <v>738</v>
       </c>
-      <c r="AQ1" s="157" t="s">
+      <c r="AR1" s="157" t="s">
         <v>739</v>
       </c>
-      <c r="AR1" s="157" t="s">
+      <c r="AS1" s="157" t="s">
         <v>740</v>
       </c>
-      <c r="AS1" s="157" t="s">
+      <c r="AT1" s="154" t="s">
         <v>741</v>
       </c>
-      <c r="AT1" s="154" t="s">
+      <c r="AU1" s="154" t="s">
         <v>742</v>
       </c>
-      <c r="AU1" s="154" t="s">
+      <c r="AV1" s="154" t="s">
         <v>743</v>
       </c>
-      <c r="AV1" s="154" t="s">
+      <c r="AW1" s="154" t="s">
         <v>744</v>
       </c>
-      <c r="AW1" s="154" t="s">
-        <v>745</v>
-      </c>
       <c r="AX1" s="162" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AY1" s="167" t="s">
+        <v>773</v>
+      </c>
+      <c r="AZ1" s="167" t="s">
         <v>774</v>
       </c>
-      <c r="AZ1" s="167" t="s">
+      <c r="BA1" s="167" t="s">
         <v>775</v>
       </c>
-      <c r="BA1" s="167" t="s">
+      <c r="BB1" s="167" t="s">
         <v>776</v>
-      </c>
-      <c r="BB1" s="167" t="s">
-        <v>777</v>
       </c>
       <c r="BC1" s="167"/>
       <c r="BD1" s="167" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
@@ -3613,8 +3613,8 @@
       <c r="N2" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="112" t="s">
-        <v>654</v>
+      <c r="O2" s="159" t="s">
+        <v>819</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>93</v>
@@ -3626,7 +3626,7 @@
         <v>94</v>
       </c>
       <c r="AH2" s="111" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AI2" s="121" t="s">
         <v>123</v>
@@ -3635,21 +3635,21 @@
         <v>505</v>
       </c>
       <c r="AK2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AM2" s="150"/>
       <c r="AN2" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO2" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AP2" s="150"/>
       <c r="AQ2" s="150"/>
       <c r="AR2" s="150"/>
       <c r="AS2" s="150"/>
       <c r="AT2" s="155" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AU2" s="153" t="s">
         <v>123</v>
@@ -3657,24 +3657,24 @@
       <c r="AV2" s="150"/>
       <c r="AW2" s="150"/>
       <c r="AY2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ2" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BA2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB2" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BD2" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -3716,7 +3716,7 @@
         <v>103</v>
       </c>
       <c r="O3" s="159" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="P3" t="s">
         <v>104</v>
@@ -3749,7 +3749,7 @@
         <v>182</v>
       </c>
       <c r="AH3" s="111" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AI3" s="118" t="s">
         <v>123</v>
@@ -3758,63 +3758,63 @@
         <v>505</v>
       </c>
       <c r="AK3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AM3" s="152" t="s">
         <v>507</v>
       </c>
       <c r="AN3" s="152" t="s">
+        <v>745</v>
+      </c>
+      <c r="AO3" s="152" t="s">
+        <v>745</v>
+      </c>
+      <c r="AP3" s="161" t="s">
+        <v>785</v>
+      </c>
+      <c r="AQ3" s="161" t="s">
+        <v>786</v>
+      </c>
+      <c r="AR3" s="155" t="s">
         <v>746</v>
       </c>
-      <c r="AO3" s="152" t="s">
-        <v>746</v>
-      </c>
-      <c r="AP3" s="161" t="s">
-        <v>786</v>
-      </c>
-      <c r="AQ3" s="161" t="s">
-        <v>787</v>
-      </c>
-      <c r="AR3" s="155" t="s">
+      <c r="AS3" s="151" t="s">
         <v>747</v>
       </c>
-      <c r="AS3" s="151" t="s">
+      <c r="AT3" s="155" t="s">
+        <v>747</v>
+      </c>
+      <c r="AU3" s="155" t="s">
         <v>748</v>
       </c>
-      <c r="AT3" s="155" t="s">
-        <v>748</v>
-      </c>
-      <c r="AU3" s="155" t="s">
+      <c r="AV3" s="155" t="s">
         <v>749</v>
       </c>
-      <c r="AV3" s="155" t="s">
+      <c r="AW3" s="155" t="s">
         <v>750</v>
-      </c>
-      <c r="AW3" s="155" t="s">
-        <v>751</v>
       </c>
       <c r="AX3" s="160" t="s">
         <v>507</v>
       </c>
       <c r="AY3" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ3" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BA3" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB3" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BD3" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -3852,7 +3852,7 @@
         <v>39</v>
       </c>
       <c r="O4" s="161" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -3867,7 +3867,7 @@
         <v>43</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Y4" s="21"/>
       <c r="Z4" s="21"/>
@@ -3879,7 +3879,7 @@
         <v>171</v>
       </c>
       <c r="AH4" s="111" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AI4" s="159" t="s">
         <v>123</v>
@@ -3888,20 +3888,20 @@
         <v>505</v>
       </c>
       <c r="AK4" s="118" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AN4" s="152" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO4" s="152" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AP4" s="150"/>
       <c r="AQ4" s="150"/>
       <c r="AR4" s="150"/>
       <c r="AS4" s="150"/>
       <c r="AT4" s="155" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AU4" s="151" t="s">
         <v>117</v>
@@ -3909,24 +3909,24 @@
       <c r="AV4" s="150"/>
       <c r="AW4" s="150"/>
       <c r="AY4" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ4" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BA4" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB4" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BD4" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -3968,7 +3968,7 @@
         <v>73</v>
       </c>
       <c r="O5" s="159" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -3989,7 +3989,7 @@
         <v>94</v>
       </c>
       <c r="AH5" s="111" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AI5" s="118" t="s">
         <v>123</v>
@@ -3998,23 +3998,23 @@
         <v>505</v>
       </c>
       <c r="AK5" s="118" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AM5" s="152" t="s">
         <v>46</v>
       </c>
       <c r="AN5" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO5" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AP5" s="150"/>
       <c r="AQ5" s="150"/>
       <c r="AR5" s="150"/>
       <c r="AS5" s="150"/>
       <c r="AT5" s="155" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AU5" s="150" t="s">
         <v>123</v>
@@ -4022,27 +4022,27 @@
       <c r="AV5" s="150"/>
       <c r="AW5" s="150"/>
       <c r="AX5" s="160" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AY5" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ5" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BA5" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB5" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BD5" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:56" s="158" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="160" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B6" s="160" t="s">
         <v>13</v>
@@ -4084,7 +4084,7 @@
         <v>56</v>
       </c>
       <c r="O6" s="161" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="P6" s="109"/>
       <c r="Q6" s="109"/>
@@ -4114,19 +4114,19 @@
         <v>505</v>
       </c>
       <c r="AK6" s="159" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AL6" s="158" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AM6" s="161" t="s">
         <v>51</v>
       </c>
       <c r="AN6" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO6" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AT6" s="163" t="s">
         <v>504</v>
@@ -4135,27 +4135,27 @@
         <v>123</v>
       </c>
       <c r="AX6" s="161" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AY6" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ6" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BA6" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB6" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BD6" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:56" s="158" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="98" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B7" s="158" t="s">
         <v>13</v>
@@ -4197,7 +4197,7 @@
         <v>103</v>
       </c>
       <c r="O7" s="103" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="P7" s="158" t="s">
         <v>27</v>
@@ -4246,57 +4246,57 @@
         <v>507</v>
       </c>
       <c r="AN7" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AO7" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AP7" s="159" t="s">
+        <v>794</v>
+      </c>
+      <c r="AQ7" s="159" t="s">
         <v>795</v>
       </c>
-      <c r="AQ7" s="159" t="s">
-        <v>796</v>
-      </c>
       <c r="AR7" s="159" t="s">
+        <v>751</v>
+      </c>
+      <c r="AS7" s="159" t="s">
         <v>752</v>
       </c>
-      <c r="AS7" s="159" t="s">
+      <c r="AT7" s="163" t="s">
+        <v>752</v>
+      </c>
+      <c r="AU7" s="163" t="s">
+        <v>752</v>
+      </c>
+      <c r="AV7" s="159" t="s">
         <v>753</v>
       </c>
-      <c r="AT7" s="163" t="s">
-        <v>753</v>
-      </c>
-      <c r="AU7" s="163" t="s">
-        <v>753</v>
-      </c>
-      <c r="AV7" s="159" t="s">
+      <c r="AW7" s="159" t="s">
         <v>754</v>
-      </c>
-      <c r="AW7" s="159" t="s">
-        <v>755</v>
       </c>
       <c r="AX7" s="160" t="s">
         <v>507</v>
       </c>
       <c r="AY7" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AZ7" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BA7" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="BB7" s="168" t="s">
         <v>231</v>
       </c>
       <c r="BD7" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" spans="1:56" s="171" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="168" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B8" s="171" t="s">
         <v>13</v>
@@ -4307,16 +4307,16 @@
       <c r="I8" s="172"/>
       <c r="N8" s="172"/>
       <c r="O8" s="42" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" s="168" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G9" s="1"/>
       <c r="O9" s="114" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AM9" s="150"/>
       <c r="AN9" s="150"/>
@@ -4332,10 +4332,10 @@
     </row>
     <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" s="168" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="O10" s="114" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="21" spans="39:50" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>279</v>
       </c>
       <c r="AM1" s="126" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AN1" s="126" t="s">
         <v>280</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" s="128" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>468</v>
@@ -4698,13 +4698,13 @@
         <v>227</v>
       </c>
       <c r="Z2" s="128" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AA2" s="128" t="s">
         <v>168</v>
       </c>
       <c r="AB2" s="129" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AC2" s="128" t="s">
         <v>321</v>
@@ -5088,13 +5088,13 @@
         <v>185</v>
       </c>
       <c r="Z4" s="128" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA4" s="128" t="s">
         <v>168</v>
       </c>
       <c r="AB4" s="129" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AC4" s="128" t="s">
         <v>321</v>
@@ -5217,7 +5217,7 @@
         <v>489</v>
       </c>
       <c r="Z5" s="128" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AA5" s="128" t="s">
         <v>168</v>
@@ -5350,13 +5350,13 @@
         <v>581</v>
       </c>
       <c r="Z6" s="128" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AA6" s="128" t="s">
         <v>227</v>
       </c>
       <c r="AB6" s="129" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AC6" s="128" t="s">
         <v>286</v>
@@ -5483,7 +5483,7 @@
         <v>483</v>
       </c>
       <c r="Z7" s="128" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA7" s="128" t="s">
         <v>168</v>
@@ -5515,7 +5515,7 @@
         <v>182</v>
       </c>
       <c r="AL7" s="129" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AM7" s="129" t="s">
         <v>323</v>
@@ -5609,16 +5609,16 @@
         <v>285</v>
       </c>
       <c r="Y8" s="128" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z8" s="128" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AA8" s="128" t="s">
         <v>581</v>
       </c>
       <c r="AB8" s="129" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AC8" s="128" t="s">
         <v>286</v>
@@ -5743,7 +5743,7 @@
         <v>581</v>
       </c>
       <c r="Z9" s="128" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AA9" s="128" t="s">
         <v>559</v>
@@ -5874,7 +5874,7 @@
         <v>323</v>
       </c>
       <c r="Z10" s="128" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA10" s="128" t="s">
         <v>323</v>
@@ -6003,7 +6003,7 @@
         <v>323</v>
       </c>
       <c r="Z11" s="128" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA11" s="128" t="s">
         <v>323</v>
@@ -6097,7 +6097,7 @@
       <c r="W12" s="118"/>
       <c r="X12" s="118"/>
       <c r="Y12" s="128" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z12" s="118"/>
       <c r="AA12" s="118"/>
@@ -6181,23 +6181,23 @@
       <c r="AF13" s="118"/>
       <c r="AG13" s="118"/>
       <c r="AH13" s="129" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI13" s="129" t="s">
         <v>685</v>
       </c>
-      <c r="AI13" s="129" t="s">
+      <c r="AJ13" s="129" t="s">
         <v>686</v>
       </c>
-      <c r="AJ13" s="129" t="s">
+      <c r="AK13" s="129" t="s">
         <v>687</v>
       </c>
-      <c r="AK13" s="129" t="s">
+      <c r="AL13" s="129" t="s">
         <v>688</v>
-      </c>
-      <c r="AL13" s="129" t="s">
-        <v>689</v>
       </c>
       <c r="AM13" s="129"/>
       <c r="AN13" s="129" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AO13" s="118"/>
       <c r="AP13" s="118"/>
@@ -6265,7 +6265,7 @@
         <v>469</v>
       </c>
       <c r="AA14" s="142" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AB14" s="142"/>
       <c r="AC14" s="118"/>
@@ -6419,16 +6419,16 @@
         <v>342</v>
       </c>
       <c r="Y16" s="142" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z16" s="142" t="s">
         <v>692</v>
       </c>
-      <c r="Z16" s="142" t="s">
+      <c r="AA16" s="142" t="s">
         <v>693</v>
       </c>
-      <c r="AA16" s="142" t="s">
+      <c r="AB16" s="142" t="s">
         <v>694</v>
-      </c>
-      <c r="AB16" s="142" t="s">
-        <v>695</v>
       </c>
       <c r="AC16" s="118"/>
       <c r="AD16" s="118"/>
@@ -6436,13 +6436,13 @@
       <c r="AF16" s="118"/>
       <c r="AG16" s="118"/>
       <c r="AH16" s="142" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI16" s="142" t="s">
         <v>696</v>
       </c>
-      <c r="AI16" s="142" t="s">
+      <c r="AJ16" s="142" t="s">
         <v>697</v>
-      </c>
-      <c r="AJ16" s="142" t="s">
-        <v>698</v>
       </c>
       <c r="AK16" s="142" t="s">
         <v>633</v>
@@ -6506,13 +6506,13 @@
         <v>94</v>
       </c>
       <c r="Z17" s="142" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AA17" s="142" t="s">
         <v>168</v>
       </c>
       <c r="AB17" s="143" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AC17" s="118"/>
       <c r="AD17" s="118"/>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="AM17" s="142"/>
       <c r="AN17" s="143" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="10:40" x14ac:dyDescent="0.25">
@@ -6561,7 +6561,7 @@
         <v>323</v>
       </c>
       <c r="Z18" s="142" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA18" s="142" t="s">
         <v>323</v>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="AM18" s="142"/>
       <c r="AN18" s="143" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="10:40" x14ac:dyDescent="0.25">
@@ -6615,16 +6615,16 @@
         <v>345</v>
       </c>
       <c r="Y19" s="142" t="s">
+        <v>700</v>
+      </c>
+      <c r="Z19" s="142" t="s">
         <v>701</v>
-      </c>
-      <c r="Z19" s="142" t="s">
-        <v>702</v>
       </c>
       <c r="AA19" s="142" t="s">
         <v>482</v>
       </c>
       <c r="AB19" s="142" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AC19" s="118"/>
       <c r="AD19" s="118"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="AM19" s="142"/>
       <c r="AN19" s="123" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="20" spans="10:40" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
         <v>185</v>
       </c>
       <c r="Z21" s="128" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA21" s="128" t="s">
         <v>168</v>
@@ -6859,7 +6859,7 @@
         <v>489</v>
       </c>
       <c r="Z22" s="128" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AA22" s="128" t="s">
         <v>168</v>
@@ -6940,7 +6940,7 @@
         <v>581</v>
       </c>
       <c r="Z23" s="128" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AA23" s="128" t="s">
         <v>227</v>
@@ -7021,7 +7021,7 @@
         <v>483</v>
       </c>
       <c r="Z24" s="128" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AA24" s="128" t="s">
         <v>168</v>
@@ -7095,10 +7095,10 @@
         <v>285</v>
       </c>
       <c r="Y25" s="128" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Z25" s="128" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AA25" s="128" t="s">
         <v>581</v>
@@ -7179,7 +7179,7 @@
         <v>581</v>
       </c>
       <c r="Z26" s="128" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AA26" s="128" t="s">
         <v>559</v>
@@ -7288,7 +7288,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="45" t="s">
         <v>113</v>
@@ -7297,7 +7297,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="110" t="s">
         <v>500</v>
@@ -7371,7 +7371,7 @@
         <v>505</v>
       </c>
       <c r="U2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -7418,7 +7418,7 @@
         <v>100004</v>
       </c>
       <c r="O3" s="91" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>178</v>
@@ -7434,7 +7434,7 @@
         <v>505</v>
       </c>
       <c r="U3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -7481,7 +7481,7 @@
         <v>100004</v>
       </c>
       <c r="O4" s="91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P4" s="48" t="s">
         <v>178</v>
@@ -7494,10 +7494,10 @@
       </c>
       <c r="S4" s="109"/>
       <c r="T4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -7585,7 +7585,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>113</v>
@@ -7594,7 +7594,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>252</v>
@@ -7673,7 +7673,7 @@
         <v>505</v>
       </c>
       <c r="V2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W2" s="118"/>
       <c r="X2" s="34"/>
@@ -7722,7 +7722,7 @@
         <v>100004</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>178</v>
@@ -7739,7 +7739,7 @@
         <v>505</v>
       </c>
       <c r="V3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W3" s="118"/>
     </row>
@@ -7787,7 +7787,7 @@
         <v>100004</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P4" s="36" t="s">
         <v>178</v>
@@ -7801,10 +7801,10 @@
       <c r="S4" s="34"/>
       <c r="T4" s="109"/>
       <c r="U4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="W4" s="118"/>
     </row>
@@ -8153,7 +8153,7 @@
         <v>108</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1" s="45" t="s">
         <v>109</v>
@@ -8186,7 +8186,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="45" t="s">
         <v>26</v>
@@ -8225,7 +8225,7 @@
         <v>92</v>
       </c>
       <c r="AB1" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AC1" s="45" t="s">
         <v>118</v>
@@ -8302,7 +8302,7 @@
         <v>407</v>
       </c>
       <c r="O2" s="91" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y2" s="48" t="s">
         <v>93</v>
@@ -8321,7 +8321,7 @@
         <v>505</v>
       </c>
       <c r="AM2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AN2" s="118"/>
     </row>
@@ -8369,7 +8369,7 @@
         <v>408</v>
       </c>
       <c r="O3" s="91" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P3" s="46" t="s">
         <v>104</v>
@@ -8409,13 +8409,13 @@
         <v>505</v>
       </c>
       <c r="AM3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AN3" s="118"/>
     </row>
     <row r="4" spans="1:40" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>13</v>
@@ -8453,7 +8453,7 @@
         <v>409</v>
       </c>
       <c r="O4" s="91" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="P4" s="55"/>
       <c r="Q4" s="55"/>
@@ -8484,10 +8484,10 @@
       </c>
       <c r="AK4" s="109"/>
       <c r="AL4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AM4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AN4" s="118"/>
     </row>
@@ -8535,7 +8535,7 @@
         <v>410</v>
       </c>
       <c r="O5" s="91" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P5" s="55"/>
       <c r="Q5" s="55"/>
@@ -8559,10 +8559,10 @@
         <v>123</v>
       </c>
       <c r="AL5" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AM5" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -8633,10 +8633,10 @@
         <v>123</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AM6" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
@@ -8724,10 +8724,10 @@
       </c>
       <c r="AI7" s="86"/>
       <c r="AL7" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AM7" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
@@ -8816,7 +8816,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="32" t="s">
         <v>113</v>
@@ -8825,7 +8825,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="32" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="33" t="s">
         <v>252</v>
@@ -8903,7 +8903,7 @@
         <v>505</v>
       </c>
       <c r="V2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W2" s="28"/>
       <c r="X2" s="28"/>
@@ -8952,7 +8952,7 @@
         <v>408</v>
       </c>
       <c r="O3" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>178</v>
@@ -8969,7 +8969,7 @@
         <v>505</v>
       </c>
       <c r="V3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
@@ -9016,7 +9016,7 @@
         <v>409</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P4" s="36" t="s">
         <v>178</v>
@@ -9030,10 +9030,10 @@
       <c r="S4" s="34"/>
       <c r="T4" s="109"/>
       <c r="U4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -9115,7 +9115,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="45" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="45" t="s">
         <v>113</v>
@@ -9124,7 +9124,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="45" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="110" t="s">
         <v>500</v>
@@ -9198,7 +9198,7 @@
         <v>505</v>
       </c>
       <c r="U2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -9245,7 +9245,7 @@
         <v>408</v>
       </c>
       <c r="O3" s="91" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P3" s="48" t="s">
         <v>178</v>
@@ -9261,7 +9261,7 @@
         <v>505</v>
       </c>
       <c r="U3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
@@ -9308,7 +9308,7 @@
         <v>409</v>
       </c>
       <c r="O4" s="91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P4" s="48" t="s">
         <v>178</v>
@@ -9321,10 +9321,10 @@
       </c>
       <c r="S4" s="109"/>
       <c r="T4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -9414,7 +9414,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="58" t="s">
         <v>26</v>
@@ -9453,7 +9453,7 @@
         <v>92</v>
       </c>
       <c r="AB1" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AC1" s="58" t="s">
         <v>118</v>
@@ -9528,7 +9528,7 @@
         <v>424</v>
       </c>
       <c r="O2" s="101" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
@@ -9563,7 +9563,7 @@
         <v>505</v>
       </c>
       <c r="AL2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -9610,7 +9610,7 @@
         <v>431</v>
       </c>
       <c r="O3" s="101" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P3" s="38" t="s">
         <v>104</v>
@@ -9659,12 +9659,12 @@
         <v>505</v>
       </c>
       <c r="AL3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B4" s="38" t="s">
         <v>13</v>
@@ -9702,7 +9702,7 @@
         <v>432</v>
       </c>
       <c r="O4" s="65" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="P4" s="73"/>
       <c r="Q4" s="73"/>
@@ -9738,10 +9738,10 @@
       <c r="AI4" s="46"/>
       <c r="AJ4" s="109"/>
       <c r="AK4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -9788,7 +9788,7 @@
         <v>433</v>
       </c>
       <c r="O5" s="101" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P5" s="73"/>
       <c r="Q5" s="73"/>
@@ -10058,7 +10058,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="62" t="s">
         <v>113</v>
@@ -10067,7 +10067,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="62" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="63" t="s">
         <v>252</v>
@@ -10096,7 +10096,7 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>58</v>
@@ -10138,7 +10138,7 @@
         <v>424</v>
       </c>
       <c r="O2" s="36" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="P2" s="36" t="s">
         <v>178</v>
@@ -10157,7 +10157,7 @@
         <v>505</v>
       </c>
       <c r="V2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W2" s="34"/>
       <c r="X2" s="34"/>
@@ -10233,7 +10233,7 @@
         <v>505</v>
       </c>
       <c r="V3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W3" s="34"/>
       <c r="X3" s="34"/>
@@ -10306,10 +10306,10 @@
       <c r="S4" s="34"/>
       <c r="T4" s="109"/>
       <c r="U4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="W4" s="34"/>
       <c r="X4" s="34"/>
@@ -10404,7 +10404,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="58" t="s">
         <v>437</v>
@@ -10413,7 +10413,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="110" t="s">
         <v>500</v>
@@ -10485,7 +10485,7 @@
         <v>505</v>
       </c>
       <c r="U2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -10548,7 +10548,7 @@
         <v>505</v>
       </c>
       <c r="U3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -10608,10 +10608,10 @@
       </c>
       <c r="S4" s="109"/>
       <c r="T4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -10774,7 +10774,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="63" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="63" t="s">
         <v>113</v>
@@ -10783,7 +10783,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="63" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="63" t="s">
         <v>252</v>
@@ -10801,60 +10801,60 @@
         <v>503</v>
       </c>
       <c r="X1" s="164" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y1" s="165" t="s">
         <v>736</v>
       </c>
-      <c r="Y1" s="165" t="s">
+      <c r="Z1" s="165" t="s">
         <v>737</v>
       </c>
-      <c r="Z1" s="165" t="s">
+      <c r="AA1" s="165" t="s">
         <v>738</v>
       </c>
-      <c r="AA1" s="165" t="s">
+      <c r="AB1" s="165" t="s">
         <v>739</v>
       </c>
-      <c r="AB1" s="165" t="s">
+      <c r="AC1" s="162" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD1" s="165" t="s">
         <v>740</v>
       </c>
-      <c r="AC1" s="162" t="s">
+      <c r="AE1" s="162" t="s">
+        <v>741</v>
+      </c>
+      <c r="AF1" s="162" t="s">
         <v>743</v>
       </c>
-      <c r="AD1" s="165" t="s">
-        <v>741</v>
-      </c>
-      <c r="AE1" s="162" t="s">
-        <v>742</v>
-      </c>
-      <c r="AF1" s="162" t="s">
+      <c r="AG1" s="162" t="s">
         <v>744</v>
       </c>
-      <c r="AG1" s="162" t="s">
-        <v>745</v>
-      </c>
       <c r="AH1" s="166" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AI1" s="167" t="s">
+        <v>773</v>
+      </c>
+      <c r="AJ1" s="167" t="s">
         <v>774</v>
       </c>
-      <c r="AJ1" s="167" t="s">
+      <c r="AK1" s="167" t="s">
         <v>775</v>
       </c>
-      <c r="AK1" s="167" t="s">
+      <c r="AL1" s="167" t="s">
         <v>776</v>
-      </c>
-      <c r="AL1" s="167" t="s">
-        <v>777</v>
       </c>
       <c r="AM1" s="162" t="s">
         <v>503</v>
       </c>
       <c r="AN1" s="167" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>58</v>
@@ -10896,7 +10896,7 @@
         <v>455</v>
       </c>
       <c r="O2" s="80" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="P2" s="76" t="s">
         <v>178</v>
@@ -10915,66 +10915,66 @@
         <v>505</v>
       </c>
       <c r="V2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="W2" s="160" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="X2" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y2" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Z2" s="161" t="s">
+        <v>788</v>
+      </c>
+      <c r="AA2" s="161" t="s">
         <v>789</v>
       </c>
-      <c r="AA2" s="161" t="s">
-        <v>790</v>
-      </c>
       <c r="AB2" s="161" t="s">
+        <v>751</v>
+      </c>
+      <c r="AC2" s="163" t="s">
         <v>752</v>
       </c>
-      <c r="AC2" s="163" t="s">
+      <c r="AD2" s="161" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE2" s="163" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF2" s="161" t="s">
+        <v>755</v>
+      </c>
+      <c r="AG2" s="161" t="s">
         <v>753</v>
       </c>
-      <c r="AD2" s="161" t="s">
-        <v>753</v>
-      </c>
-      <c r="AE2" s="163" t="s">
-        <v>753</v>
-      </c>
-      <c r="AF2" s="161" t="s">
-        <v>756</v>
-      </c>
-      <c r="AG2" s="161" t="s">
-        <v>754</v>
-      </c>
       <c r="AH2" s="160" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AI2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AJ2" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AK2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AL2" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AM2" s="160" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AN2" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>58</v>
@@ -11016,7 +11016,7 @@
         <v>456</v>
       </c>
       <c r="O3" s="80" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="P3" s="76" t="s">
         <v>178</v>
@@ -11032,52 +11032,52 @@
         <v>505</v>
       </c>
       <c r="V3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="W3" s="160" t="s">
         <v>46</v>
       </c>
       <c r="X3" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y3" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Z3" s="161" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA3" s="161" t="s">
         <v>791</v>
       </c>
-      <c r="AA3" s="161" t="s">
-        <v>792</v>
-      </c>
       <c r="AB3" s="163" t="s">
+        <v>756</v>
+      </c>
+      <c r="AC3" s="163" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD3" s="159" t="s">
         <v>757</v>
       </c>
-      <c r="AC3" s="163" t="s">
+      <c r="AE3" s="163" t="s">
+        <v>757</v>
+      </c>
+      <c r="AF3" s="163" t="s">
+        <v>787</v>
+      </c>
+      <c r="AG3" s="163" t="s">
         <v>759</v>
       </c>
-      <c r="AD3" s="159" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE3" s="163" t="s">
-        <v>758</v>
-      </c>
-      <c r="AF3" s="163" t="s">
-        <v>788</v>
-      </c>
-      <c r="AG3" s="163" t="s">
-        <v>760</v>
-      </c>
       <c r="AH3" s="160" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AI3" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AJ3" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AK3" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AL3" s="168" t="s">
         <v>231</v>
@@ -11086,7 +11086,7 @@
         <v>46</v>
       </c>
       <c r="AN3" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
@@ -11133,7 +11133,7 @@
         <v>457</v>
       </c>
       <c r="O4" s="80" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="P4" s="76" t="s">
         <v>178</v>
@@ -11146,19 +11146,19 @@
       </c>
       <c r="T4" s="109"/>
       <c r="U4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="V4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="W4" s="161" t="s">
         <v>51</v>
       </c>
       <c r="X4" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y4" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Z4" s="158"/>
       <c r="AA4" s="158"/>
@@ -11169,16 +11169,16 @@
       <c r="AF4" s="158"/>
       <c r="AG4" s="158"/>
       <c r="AH4" s="160" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AI4" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AJ4" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AK4" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AL4" s="168" t="s">
         <v>231</v>
@@ -11187,15 +11187,15 @@
         <v>51</v>
       </c>
       <c r="AN4" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="168" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="T5" s="119"/>
       <c r="U5" s="118"/>
@@ -11305,7 +11305,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="13" t="s">
         <v>113</v>
@@ -11314,7 +11314,7 @@
         <v>114</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="S1" s="110" t="s">
         <v>500</v>
@@ -11329,28 +11329,28 @@
         <v>503</v>
       </c>
       <c r="W1" s="164" t="s">
+        <v>735</v>
+      </c>
+      <c r="X1" s="165" t="s">
         <v>736</v>
       </c>
-      <c r="X1" s="165" t="s">
-        <v>737</v>
-      </c>
       <c r="Y1" s="166" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Z1" s="167" t="s">
+        <v>773</v>
+      </c>
+      <c r="AA1" s="167" t="s">
         <v>774</v>
       </c>
-      <c r="AA1" s="167" t="s">
+      <c r="AB1" s="167" t="s">
         <v>775</v>
       </c>
-      <c r="AB1" s="167" t="s">
+      <c r="AC1" s="167" t="s">
         <v>776</v>
       </c>
-      <c r="AC1" s="167" t="s">
-        <v>777</v>
-      </c>
       <c r="AD1" s="167" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -11413,34 +11413,34 @@
         <v>505</v>
       </c>
       <c r="U2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="V2" s="158" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="W2" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X2" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y2" s="158" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Z2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA2" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AB2" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AC2" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AD2" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -11487,7 +11487,7 @@
         <v>455</v>
       </c>
       <c r="O3" s="42" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P3" s="42" t="s">
         <v>178</v>
@@ -11503,34 +11503,34 @@
         <v>505</v>
       </c>
       <c r="U3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="V3" s="160" t="s">
         <v>46</v>
       </c>
       <c r="W3" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X3" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y3" s="160" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z3" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA3" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AB3" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AC3" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AD3" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -11577,7 +11577,7 @@
         <v>455</v>
       </c>
       <c r="O4" s="42" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P4" s="42" t="s">
         <v>178</v>
@@ -11590,45 +11590,45 @@
       </c>
       <c r="S4" s="109"/>
       <c r="T4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="U4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="V4" s="161" t="s">
         <v>51</v>
       </c>
       <c r="W4" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="X4" s="160" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y4" s="160" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="Z4" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AA4" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AB4" s="168" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AC4" s="168" t="s">
         <v>231</v>
       </c>
       <c r="AD4" s="170" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O5" s="159" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -11675,13 +11675,13 @@
         <v>459</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>723</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>724</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>725</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>76</v>
@@ -11693,7 +11693,7 @@
         <v>444</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>8</v>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="Q2" s="107"/>
       <c r="R2" s="112" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S2" s="104"/>
     </row>
@@ -11821,10 +11821,10 @@
       </c>
       <c r="Q3" s="104"/>
       <c r="R3" s="104" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="S3" s="114" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="Q4" s="105"/>
       <c r="R4" s="112" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S4" s="108" t="s">
         <v>51</v>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="Q5" s="104"/>
       <c r="R5" s="112" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S5" s="106" t="s">
         <v>46</v>
@@ -12040,7 +12040,7 @@
         <v>506</v>
       </c>
       <c r="S7" s="114" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="120" customFormat="1" x14ac:dyDescent="0.25">
@@ -12092,36 +12092,36 @@
       </c>
       <c r="Q8" s="121"/>
       <c r="R8" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S8" s="118" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>730</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>231</v>
       </c>
       <c r="I9" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>732</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>733</v>
       </c>
       <c r="K9" s="160" t="s">
         <v>37</v>
       </c>
       <c r="L9" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>734</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -12286,7 +12286,7 @@
         <v>108</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E1" s="24" t="s">
         <v>109</v>
@@ -12319,7 +12319,7 @@
         <v>12</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="P1" s="25" t="s">
         <v>26</v>
@@ -12358,7 +12358,7 @@
         <v>92</v>
       </c>
       <c r="AB1" s="25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="AC1" s="25" t="s">
         <v>118</v>
@@ -12433,7 +12433,7 @@
         <v>649</v>
       </c>
       <c r="O2" s="112" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>93</v>
@@ -12452,7 +12452,7 @@
         <v>505</v>
       </c>
       <c r="AL2" s="118" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -12499,7 +12499,7 @@
         <v>649</v>
       </c>
       <c r="O3" s="112" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="P3" t="s">
         <v>104</v>
@@ -12539,12 +12539,12 @@
         <v>505</v>
       </c>
       <c r="AL3" s="118" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -12582,7 +12582,7 @@
         <v>649</v>
       </c>
       <c r="O4" s="112" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -12613,10 +12613,10 @@
       </c>
       <c r="AJ4" s="109"/>
       <c r="AK4" s="118" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AL4" s="118" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -12663,7 +12663,7 @@
         <v>649</v>
       </c>
       <c r="O5" s="112" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
@@ -12687,10 +12687,10 @@
         <v>123</v>
       </c>
       <c r="AK5" s="118" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AL5" s="118" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -12761,10 +12761,10 @@
         <v>123</v>
       </c>
       <c r="AK6" s="118" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AL6" s="118" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -12852,10 +12852,10 @@
       </c>
       <c r="AI7" s="81"/>
       <c r="AK7" s="118" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AL7" s="118" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -13095,16 +13095,16 @@
         <v>652</v>
       </c>
       <c r="U2" s="161" t="s">
+        <v>778</v>
+      </c>
+      <c r="V2" s="161" t="s">
         <v>779</v>
-      </c>
-      <c r="V2" s="161" t="s">
-        <v>780</v>
       </c>
       <c r="W2" s="161" t="s">
         <v>642</v>
       </c>
       <c r="X2" s="161" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="Y2" s="161" t="s">
         <v>595</v>
@@ -13551,7 +13551,7 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="112" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B1" s="112" t="s">
         <v>100</v>
@@ -14348,16 +14348,16 @@
     </row>
     <row r="7" spans="1:46" s="158" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="158" t="s">
+        <v>760</v>
+      </c>
+      <c r="E7" s="159" t="s">
         <v>761</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="F7" s="159" t="s">
         <v>762</v>
       </c>
-      <c r="F7" s="159" t="s">
+      <c r="G7" s="159" t="s">
         <v>763</v>
-      </c>
-      <c r="G7" s="159" t="s">
-        <v>764</v>
       </c>
     </row>
   </sheetData>
